--- a/Relacionamento.xlsx
+++ b/Relacionamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adielmo\Documents\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A624C9-A928-4AD1-A880-53174527F1B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2E203A-083B-4466-A241-0BC730C662E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{0D401800-7C4D-4FAD-AC8A-168D481030A1}"/>
   </bookViews>
@@ -561,33 +561,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -596,24 +569,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -634,32 +589,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -702,6 +636,101 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -710,35 +739,6 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1075,20 +1075,20 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="42"/>
       <c r="D4" s="7"/>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="42"/>
       <c r="I4" s="7"/>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="15"/>
+      <c r="L4" s="44"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -1258,10 +1258,10 @@
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="17"/>
+      <c r="C14" s="46"/>
       <c r="D14" s="9"/>
       <c r="F14" s="12">
         <v>5</v>
@@ -1270,16 +1270,16 @@
         <v>2</v>
       </c>
       <c r="I14" s="9"/>
-      <c r="K14" s="16" t="s">
+      <c r="K14" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="L14" s="17"/>
+      <c r="L14" s="46"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="19"/>
+      <c r="C15" s="48"/>
       <c r="D15" s="9"/>
       <c r="F15" s="12">
         <v>1</v>
@@ -1288,10 +1288,10 @@
         <v>2</v>
       </c>
       <c r="I15" s="9"/>
-      <c r="K15" s="18" t="s">
+      <c r="K15" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="19"/>
+      <c r="L15" s="48"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
@@ -1338,25 +1338,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="F4" s="14" t="s">
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="F4" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="15"/>
+      <c r="G4" s="44"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -1379,7 +1379,7 @@
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1">
@@ -1388,7 +1388,7 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="13" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="1">
@@ -1405,7 +1405,7 @@
       <c r="F7" s="1">
         <v>2</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="13" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1413,7 +1413,7 @@
       <c r="B8" s="1">
         <v>3</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="1">
@@ -1422,7 +1422,7 @@
       <c r="F8" s="1">
         <v>3</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="13" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1430,70 +1430,70 @@
       <c r="B9" s="1">
         <v>4</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="22"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>5</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="22"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
-      <c r="C11" s="23"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="22"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="C12" s="22"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="22"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
-      <c r="C13" s="22"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="22"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="17"/>
+      <c r="C14" s="46"/>
       <c r="D14" s="1"/>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="17"/>
+      <c r="G14" s="46"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="21"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="1"/>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="19"/>
+      <c r="G15" s="48"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
@@ -1522,7 +1522,7 @@
   <dimension ref="B1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16:I17"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1539,276 +1539,278 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="70" t="s">
+      <c r="C2" s="65"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="71"/>
-      <c r="I2" s="72" t="s">
+      <c r="G2" s="72"/>
+      <c r="I2" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="73"/>
+      <c r="J2" s="68"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="50" t="s">
+      <c r="B3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="70"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="57" t="s">
+      <c r="I3" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="35" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="59">
-        <v>1</v>
-      </c>
-      <c r="C4" s="28" t="s">
+      <c r="B4" s="37">
+        <v>1</v>
+      </c>
+      <c r="C4" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="52">
-        <v>2</v>
-      </c>
-      <c r="G4" s="53">
+      <c r="D4" s="61"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="30">
+        <v>2</v>
+      </c>
+      <c r="G4" s="31">
         <v>3</v>
       </c>
-      <c r="I4" s="39">
-        <v>1</v>
-      </c>
-      <c r="J4" s="58" t="s">
+      <c r="I4" s="23">
+        <v>1</v>
+      </c>
+      <c r="J4" s="36" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="59">
-        <v>2</v>
-      </c>
-      <c r="C5" s="28" t="s">
+      <c r="B5" s="37">
+        <v>2</v>
+      </c>
+      <c r="C5" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="52">
-        <v>2</v>
-      </c>
-      <c r="G5" s="53">
-        <v>1</v>
-      </c>
-      <c r="I5" s="39">
-        <v>2</v>
-      </c>
-      <c r="J5" s="58" t="s">
+      <c r="D5" s="61"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="30">
+        <v>2</v>
+      </c>
+      <c r="G5" s="31">
+        <v>1</v>
+      </c>
+      <c r="I5" s="23">
+        <v>2</v>
+      </c>
+      <c r="J5" s="36" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="59">
+      <c r="B6" s="37">
         <v>3</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="52">
+      <c r="D6" s="61"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="30">
         <v>5</v>
       </c>
-      <c r="G6" s="53">
+      <c r="G6" s="31">
         <v>3</v>
       </c>
-      <c r="I6" s="39">
+      <c r="I6" s="23">
         <v>3</v>
       </c>
-      <c r="J6" s="58" t="s">
+      <c r="J6" s="36" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="59">
+      <c r="B7" s="37">
         <v>4</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="52">
-        <v>1</v>
-      </c>
-      <c r="G7" s="53">
-        <v>1</v>
-      </c>
-      <c r="I7" s="39">
+      <c r="D7" s="61"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="30">
+        <v>1</v>
+      </c>
+      <c r="G7" s="31">
+        <v>1</v>
+      </c>
+      <c r="I7" s="23">
         <v>4</v>
       </c>
-      <c r="J7" s="58" t="s">
+      <c r="J7" s="36" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="59">
+      <c r="B8" s="37">
         <v>5</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="52">
-        <v>1</v>
-      </c>
-      <c r="G8" s="53">
-        <v>2</v>
-      </c>
-      <c r="I8" s="39"/>
-      <c r="J8" s="58"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="30">
+        <v>1</v>
+      </c>
+      <c r="G8" s="31">
+        <v>2</v>
+      </c>
+      <c r="I8" s="23"/>
+      <c r="J8" s="36"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="59"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="52">
-        <v>1</v>
-      </c>
-      <c r="G9" s="53">
+      <c r="B9" s="37"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="30">
+        <v>1</v>
+      </c>
+      <c r="G9" s="31">
         <v>3</v>
       </c>
-      <c r="I9" s="39"/>
-      <c r="J9" s="58"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="36"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="39"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="42"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="52">
+      <c r="F10" s="30">
         <v>4</v>
       </c>
-      <c r="G10" s="53">
+      <c r="G10" s="31">
         <v>3</v>
       </c>
-      <c r="I10" s="43" t="s">
+      <c r="I10" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="44"/>
+      <c r="J10" s="53"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="52">
+      <c r="C11" s="59"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="30">
         <v>3</v>
       </c>
-      <c r="G11" s="53">
+      <c r="G11" s="31">
         <v>3</v>
       </c>
-      <c r="I11" s="45" t="s">
+      <c r="I11" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="46"/>
+      <c r="J11" s="58"/>
     </row>
     <row r="12" spans="2:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="63"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="53"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="61"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="31"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="39"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="53"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="46"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="31"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="58"/>
     </row>
     <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="47"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="49"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="55"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="49"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="27"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="66" t="s">
+      <c r="D16" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="74" t="s">
+      <c r="F16" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="74"/>
-      <c r="H16" s="75" t="s">
+      <c r="G16" s="54"/>
+      <c r="H16" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="75"/>
+      <c r="I16" s="55"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="66" t="s">
+      <c r="D17" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="74" t="s">
+      <c r="F17" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="G17" s="74"/>
-      <c r="H17" s="75" t="s">
+      <c r="G17" s="54"/>
+      <c r="H17" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="75"/>
+      <c r="I17" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C4:D4"/>
@@ -1817,13 +1819,11 @@
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
